--- a/src/resources/grid.xlsx
+++ b/src/resources/grid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\anourvalar-office\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1157CA34-FEAD-4E53-BA4D-81C420BC21D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35F5BB1-FFE9-47C8-991A-2C13A1929C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7E0B882-575D-4F9C-A671-FB600BEA9190}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{D7E0B882-575D-4F9C-A671-FB600BEA9190}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -151,6 +148,9 @@
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,13 +475,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -490,19 +490,19 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
